--- a/ogn/bin/config/cfg/配置.xlsx
+++ b/ogn/bin/config/cfg/配置.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\pro_0\frame\bin\World\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ogn\ogn\bin\config\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/ogn/bin/config/cfg/配置.xlsx
+++ b/ogn/bin/config/cfg/配置.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="product" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>#comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +107,37 @@
   </si>
   <si>
     <t>root123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品3</t>
+  </si>
+  <si>
+    <t>商品4</t>
+  </si>
+  <si>
+    <t>商品5</t>
+  </si>
+  <si>
+    <t>商品6</t>
+  </si>
+  <si>
+    <t>商品7</t>
+  </si>
+  <si>
+    <t>商品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,4 +735,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ogn/bin/config/cfg/配置.xlsx
+++ b/ogn/bin/config/cfg/配置.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="8325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="mail" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>#comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,36 @@
   <si>
     <t>Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题2</t>
+  </si>
+  <si>
+    <t>标题3</t>
+  </si>
+  <si>
+    <t>标题4</t>
+  </si>
+  <si>
+    <t>标题5</t>
+  </si>
+  <si>
+    <t>标题6</t>
+  </si>
+  <si>
+    <t>标题7</t>
   </si>
 </sst>
 </file>
@@ -741,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,4 +902,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>